--- a/data/raw/election/voters-age-sex-education/2023/Tokat.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Tokat.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="41">
   <si>
     <t>Tokat</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t>Zile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -686,8 +693,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,10 +1033,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58:K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,52 +1051,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2071,35 +2087,35 @@
       <c r="L29" s="4">
         <v>9</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.133</v>
+      <c r="M29" s="6">
+        <v>1133</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
         <v>807</v>
       </c>
-      <c r="D30" s="5">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5.2619999999999996</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.5169999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.319</v>
+      <c r="D30" s="6">
+        <v>1878</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5262</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1447</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2066</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2517</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1319</v>
       </c>
       <c r="J30" s="5">
         <v>99</v>
@@ -2110,15 +2126,15 @@
       <c r="L30" s="5">
         <v>108</v>
       </c>
-      <c r="M30" s="5">
-        <v>15.513999999999999</v>
+      <c r="M30" s="6">
+        <v>15514</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3117,15 +3133,15 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
         <v>151</v>
       </c>
       <c r="D56" s="5">
         <v>569</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.0609999999999999</v>
+      <c r="E56" s="6">
+        <v>2061</v>
       </c>
       <c r="F56" s="5">
         <v>531</v>
@@ -3133,8 +3149,8 @@
       <c r="G56" s="5">
         <v>739</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.1299999999999999</v>
+      <c r="H56" s="6">
+        <v>1130</v>
       </c>
       <c r="I56" s="5">
         <v>575</v>
@@ -3148,15 +3164,15 @@
       <c r="L56" s="5">
         <v>19</v>
       </c>
-      <c r="M56" s="5">
-        <v>5.8220000000000001</v>
+      <c r="M56" s="6">
+        <v>5822</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3181,7 +3197,7 @@
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -3222,8 +3238,8 @@
       <c r="J58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>15</v>
+      <c r="K58" s="4">
+        <v>0</v>
       </c>
       <c r="L58" s="4">
         <v>6</v>
@@ -3261,8 +3277,8 @@
       <c r="J59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>15</v>
+      <c r="K59" s="4">
+        <v>0</v>
       </c>
       <c r="L59" s="4">
         <v>1</v>
@@ -3302,8 +3318,8 @@
       <c r="J60" s="4">
         <v>5</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>15</v>
+      <c r="K60" s="4">
+        <v>0</v>
       </c>
       <c r="L60" s="4">
         <v>2</v>
@@ -3341,8 +3357,8 @@
       <c r="J61" s="4">
         <v>5</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>15</v>
+      <c r="K61" s="4">
+        <v>0</v>
       </c>
       <c r="L61" s="4">
         <v>2</v>
@@ -3382,8 +3398,8 @@
       <c r="J62" s="4">
         <v>7</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>15</v>
+      <c r="K62" s="4">
+        <v>0</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>15</v>
@@ -3421,8 +3437,8 @@
       <c r="J63" s="4">
         <v>3</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>15</v>
+      <c r="K63" s="4">
+        <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>15</v>
@@ -3462,8 +3478,8 @@
       <c r="J64" s="4">
         <v>2</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>15</v>
+      <c r="K64" s="4">
+        <v>0</v>
       </c>
       <c r="L64" s="4">
         <v>1</v>
@@ -3501,8 +3517,8 @@
       <c r="J65" s="4">
         <v>1</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>15</v>
+      <c r="K65" s="4">
+        <v>0</v>
       </c>
       <c r="L65" s="4">
         <v>1</v>
@@ -3542,8 +3558,8 @@
       <c r="J66" s="4">
         <v>2</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>15</v>
+      <c r="K66" s="4">
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>15</v>
@@ -3581,8 +3597,8 @@
       <c r="J67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>15</v>
+      <c r="K67" s="4">
+        <v>0</v>
       </c>
       <c r="L67" s="4">
         <v>1</v>
@@ -3622,8 +3638,8 @@
       <c r="J68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>15</v>
+      <c r="K68" s="4">
+        <v>0</v>
       </c>
       <c r="L68" s="4">
         <v>1</v>
@@ -3661,8 +3677,8 @@
       <c r="J69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>15</v>
+      <c r="K69" s="4">
+        <v>0</v>
       </c>
       <c r="L69" s="4">
         <v>4</v>
@@ -3702,8 +3718,8 @@
       <c r="J70" s="4">
         <v>3</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>15</v>
+      <c r="K70" s="4">
+        <v>0</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>15</v>
@@ -3741,8 +3757,8 @@
       <c r="J71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>15</v>
+      <c r="K71" s="4">
+        <v>0</v>
       </c>
       <c r="L71" s="4">
         <v>3</v>
@@ -3782,8 +3798,8 @@
       <c r="J72" s="4">
         <v>1</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>15</v>
+      <c r="K72" s="4">
+        <v>0</v>
       </c>
       <c r="L72" s="4">
         <v>2</v>
@@ -3821,8 +3837,8 @@
       <c r="J73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>15</v>
+      <c r="K73" s="4">
+        <v>0</v>
       </c>
       <c r="L73" s="4">
         <v>1</v>
@@ -3862,8 +3878,8 @@
       <c r="J74" s="4">
         <v>1</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>15</v>
+      <c r="K74" s="4">
+        <v>0</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>15</v>
@@ -3901,8 +3917,8 @@
       <c r="J75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>15</v>
+      <c r="K75" s="4">
+        <v>0</v>
       </c>
       <c r="L75" s="4">
         <v>1</v>
@@ -3942,8 +3958,8 @@
       <c r="J76" s="4">
         <v>1</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>15</v>
+      <c r="K76" s="4">
+        <v>0</v>
       </c>
       <c r="L76" s="4">
         <v>1</v>
@@ -3981,8 +3997,8 @@
       <c r="J77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>15</v>
+      <c r="K77" s="4">
+        <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>15</v>
@@ -4022,8 +4038,8 @@
       <c r="J78" s="4">
         <v>2</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>15</v>
+      <c r="K78" s="4">
+        <v>0</v>
       </c>
       <c r="L78" s="4">
         <v>2</v>
@@ -4061,8 +4077,8 @@
       <c r="J79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>15</v>
+      <c r="K79" s="4">
+        <v>0</v>
       </c>
       <c r="L79" s="4">
         <v>1</v>
@@ -4102,8 +4118,8 @@
       <c r="J80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>15</v>
+      <c r="K80" s="4">
+        <v>0</v>
       </c>
       <c r="L80" s="4">
         <v>1</v>
@@ -4141,8 +4157,8 @@
       <c r="J81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>15</v>
+      <c r="K81" s="4">
+        <v>0</v>
       </c>
       <c r="L81" s="4">
         <v>4</v>
@@ -4155,15 +4171,15 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
         <v>54</v>
       </c>
       <c r="D82" s="5">
         <v>417</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.1359999999999999</v>
+      <c r="E82" s="6">
+        <v>1136</v>
       </c>
       <c r="F82" s="5">
         <v>340</v>
@@ -4180,21 +4196,21 @@
       <c r="J82" s="5">
         <v>33</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="5">
         <v>35</v>
       </c>
-      <c r="M82" s="5">
-        <v>3.5630000000000002</v>
+      <c r="M82" s="6">
+        <v>3563</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4248,11 +4264,11 @@
       <c r="F84" s="4">
         <v>3</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.347</v>
-      </c>
-      <c r="H84" s="4">
-        <v>3.3420000000000001</v>
+      <c r="G84" s="8">
+        <v>1347</v>
+      </c>
+      <c r="H84" s="8">
+        <v>3342</v>
       </c>
       <c r="I84" s="4">
         <v>625</v>
@@ -4266,8 +4282,8 @@
       <c r="L84" s="4">
         <v>29</v>
       </c>
-      <c r="M84" s="5">
-        <v>5.3819999999999997</v>
+      <c r="M84" s="6">
+        <v>5382</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4287,11 +4303,11 @@
       <c r="F85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="H85" s="4">
-        <v>3.5249999999999999</v>
+      <c r="G85" s="8">
+        <v>1115</v>
+      </c>
+      <c r="H85" s="8">
+        <v>3525</v>
       </c>
       <c r="I85" s="4">
         <v>930</v>
@@ -4305,8 +4321,8 @@
       <c r="L85" s="4">
         <v>2</v>
       </c>
-      <c r="M85" s="5">
-        <v>5.6180000000000003</v>
+      <c r="M85" s="6">
+        <v>5618</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4328,14 +4344,14 @@
       <c r="F86" s="4">
         <v>53</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.006</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.0049999999999999</v>
+      <c r="G86" s="8">
+        <v>1053</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1006</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1005</v>
       </c>
       <c r="J86" s="4">
         <v>66</v>
@@ -4346,8 +4362,8 @@
       <c r="L86" s="4">
         <v>11</v>
       </c>
-      <c r="M86" s="5">
-        <v>3.2450000000000001</v>
+      <c r="M86" s="6">
+        <v>3245</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4373,8 +4389,8 @@
       <c r="H87" s="4">
         <v>750</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.3069999999999999</v>
+      <c r="I87" s="8">
+        <v>1307</v>
       </c>
       <c r="J87" s="4">
         <v>76</v>
@@ -4385,8 +4401,8 @@
       <c r="L87" s="4">
         <v>8</v>
       </c>
-      <c r="M87" s="5">
-        <v>3.254</v>
+      <c r="M87" s="6">
+        <v>3254</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4426,8 +4442,8 @@
       <c r="L88" s="4">
         <v>5</v>
       </c>
-      <c r="M88" s="5">
-        <v>3.0790000000000002</v>
+      <c r="M88" s="6">
+        <v>3079</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4465,8 +4481,8 @@
       <c r="L89" s="4">
         <v>7</v>
       </c>
-      <c r="M89" s="5">
-        <v>3.1120000000000001</v>
+      <c r="M89" s="6">
+        <v>3112</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4491,8 +4507,8 @@
       <c r="G90" s="4">
         <v>376</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.056</v>
+      <c r="H90" s="8">
+        <v>1056</v>
       </c>
       <c r="I90" s="4">
         <v>696</v>
@@ -4506,8 +4522,8 @@
       <c r="L90" s="4">
         <v>6</v>
       </c>
-      <c r="M90" s="5">
-        <v>3.4260000000000002</v>
+      <c r="M90" s="6">
+        <v>3426</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4545,8 +4561,8 @@
       <c r="L91" s="4">
         <v>8</v>
       </c>
-      <c r="M91" s="5">
-        <v>3.343</v>
+      <c r="M91" s="6">
+        <v>3343</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4571,8 +4587,8 @@
       <c r="G92" s="4">
         <v>580</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.036</v>
+      <c r="H92" s="8">
+        <v>1036</v>
       </c>
       <c r="I92" s="4">
         <v>534</v>
@@ -4586,8 +4602,8 @@
       <c r="L92" s="4">
         <v>9</v>
       </c>
-      <c r="M92" s="5">
-        <v>3.3250000000000002</v>
+      <c r="M92" s="6">
+        <v>3325</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4601,8 +4617,8 @@
       <c r="D93" s="4">
         <v>115</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.097</v>
+      <c r="E93" s="8">
+        <v>1097</v>
       </c>
       <c r="F93" s="4">
         <v>488</v>
@@ -4625,8 +4641,8 @@
       <c r="L93" s="4">
         <v>9</v>
       </c>
-      <c r="M93" s="5">
-        <v>3.391</v>
+      <c r="M93" s="6">
+        <v>3391</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,8 +4682,8 @@
       <c r="L94" s="4">
         <v>4</v>
       </c>
-      <c r="M94" s="5">
-        <v>3.1789999999999998</v>
+      <c r="M94" s="6">
+        <v>3179</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,8 +4697,8 @@
       <c r="D95" s="4">
         <v>136</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.196</v>
+      <c r="E95" s="8">
+        <v>1196</v>
       </c>
       <c r="F95" s="4">
         <v>465</v>
@@ -4705,8 +4721,8 @@
       <c r="L95" s="4">
         <v>7</v>
       </c>
-      <c r="M95" s="5">
-        <v>3.0350000000000001</v>
+      <c r="M95" s="6">
+        <v>3035</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4746,8 +4762,8 @@
       <c r="L96" s="4">
         <v>13</v>
       </c>
-      <c r="M96" s="5">
-        <v>3.0070000000000001</v>
+      <c r="M96" s="6">
+        <v>3007</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4761,8 +4777,8 @@
       <c r="D97" s="4">
         <v>262</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.331</v>
+      <c r="E97" s="8">
+        <v>1331</v>
       </c>
       <c r="F97" s="4">
         <v>435</v>
@@ -4785,8 +4801,8 @@
       <c r="L97" s="4">
         <v>20</v>
       </c>
-      <c r="M97" s="5">
-        <v>3.0649999999999999</v>
+      <c r="M97" s="6">
+        <v>3065</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4826,8 +4842,8 @@
       <c r="L98" s="4">
         <v>12</v>
       </c>
-      <c r="M98" s="5">
-        <v>3.0779999999999998</v>
+      <c r="M98" s="6">
+        <v>3078</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4841,8 +4857,8 @@
       <c r="D99" s="4">
         <v>390</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.5149999999999999</v>
+      <c r="E99" s="8">
+        <v>1515</v>
       </c>
       <c r="F99" s="4">
         <v>336</v>
@@ -4865,8 +4881,8 @@
       <c r="L99" s="4">
         <v>9</v>
       </c>
-      <c r="M99" s="5">
-        <v>3.0630000000000002</v>
+      <c r="M99" s="6">
+        <v>3063</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4882,8 +4898,8 @@
       <c r="D100" s="4">
         <v>115</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.2010000000000001</v>
+      <c r="E100" s="8">
+        <v>1201</v>
       </c>
       <c r="F100" s="4">
         <v>334</v>
@@ -4906,8 +4922,8 @@
       <c r="L100" s="4">
         <v>4</v>
       </c>
-      <c r="M100" s="5">
-        <v>2.7850000000000001</v>
+      <c r="M100" s="6">
+        <v>2785</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4921,8 +4937,8 @@
       <c r="D101" s="4">
         <v>508</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.623</v>
+      <c r="E101" s="8">
+        <v>1623</v>
       </c>
       <c r="F101" s="4">
         <v>174</v>
@@ -4945,8 +4961,8 @@
       <c r="L101" s="4">
         <v>6</v>
       </c>
-      <c r="M101" s="5">
-        <v>2.9380000000000002</v>
+      <c r="M101" s="6">
+        <v>2938</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4962,8 +4978,8 @@
       <c r="D102" s="4">
         <v>265</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.1559999999999999</v>
+      <c r="E102" s="8">
+        <v>1156</v>
       </c>
       <c r="F102" s="4">
         <v>155</v>
@@ -4986,8 +5002,8 @@
       <c r="L102" s="4">
         <v>6</v>
       </c>
-      <c r="M102" s="5">
-        <v>2.347</v>
+      <c r="M102" s="6">
+        <v>2347</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5001,8 +5017,8 @@
       <c r="D103" s="4">
         <v>637</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.252</v>
+      <c r="E103" s="8">
+        <v>1252</v>
       </c>
       <c r="F103" s="4">
         <v>57</v>
@@ -5025,8 +5041,8 @@
       <c r="L103" s="4">
         <v>10</v>
       </c>
-      <c r="M103" s="5">
-        <v>2.5939999999999999</v>
+      <c r="M103" s="6">
+        <v>2594</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5066,8 +5082,8 @@
       <c r="L104" s="4">
         <v>8</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M104" s="6">
+        <v>1582</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5105,8 +5121,8 @@
       <c r="L105" s="4">
         <v>12</v>
       </c>
-      <c r="M105" s="5">
-        <v>1.9990000000000001</v>
+      <c r="M105" s="6">
+        <v>1999</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5122,8 +5138,8 @@
       <c r="D106" s="4">
         <v>581</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.077</v>
+      <c r="E106" s="8">
+        <v>1077</v>
       </c>
       <c r="F106" s="4">
         <v>25</v>
@@ -5146,8 +5162,8 @@
       <c r="L106" s="4">
         <v>8</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.0609999999999999</v>
+      <c r="M106" s="6">
+        <v>2061</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,8 +5174,8 @@
       <c r="C107" s="4">
         <v>789</v>
       </c>
-      <c r="D107" s="4">
-        <v>1.175</v>
+      <c r="D107" s="8">
+        <v>1175</v>
       </c>
       <c r="E107" s="4">
         <v>941</v>
@@ -5185,38 +5201,38 @@
       <c r="L107" s="4">
         <v>11</v>
       </c>
-      <c r="M107" s="5">
-        <v>2.9830000000000001</v>
+      <c r="M107" s="6">
+        <v>2983</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5.57</v>
-      </c>
-      <c r="E108" s="5">
-        <v>18.065000000000001</v>
-      </c>
-      <c r="F108" s="5">
-        <v>8.3059999999999992</v>
-      </c>
-      <c r="G108" s="5">
-        <v>11.02</v>
-      </c>
-      <c r="H108" s="5">
-        <v>17.968</v>
-      </c>
-      <c r="I108" s="5">
-        <v>10.06</v>
-      </c>
-      <c r="J108" s="5">
-        <v>1.008</v>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>2574</v>
+      </c>
+      <c r="D108" s="6">
+        <v>5570</v>
+      </c>
+      <c r="E108" s="6">
+        <v>18065</v>
+      </c>
+      <c r="F108" s="6">
+        <v>8306</v>
+      </c>
+      <c r="G108" s="6">
+        <v>11020</v>
+      </c>
+      <c r="H108" s="6">
+        <v>17968</v>
+      </c>
+      <c r="I108" s="6">
+        <v>10060</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1008</v>
       </c>
       <c r="K108" s="5">
         <v>96</v>
@@ -5224,15 +5240,15 @@
       <c r="L108" s="5">
         <v>224</v>
       </c>
-      <c r="M108" s="5">
-        <v>74.891000000000005</v>
+      <c r="M108" s="6">
+        <v>74891</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5289,8 +5305,8 @@
       <c r="G110" s="4">
         <v>623</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.538</v>
+      <c r="H110" s="8">
+        <v>1538</v>
       </c>
       <c r="I110" s="4">
         <v>342</v>
@@ -5304,8 +5320,8 @@
       <c r="L110" s="4">
         <v>19</v>
       </c>
-      <c r="M110" s="5">
-        <v>2.5550000000000002</v>
+      <c r="M110" s="6">
+        <v>2555</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5328,8 +5344,8 @@
       <c r="G111" s="4">
         <v>416</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.587</v>
+      <c r="H111" s="8">
+        <v>1587</v>
       </c>
       <c r="I111" s="4">
         <v>570</v>
@@ -5343,8 +5359,8 @@
       <c r="L111" s="4">
         <v>12</v>
       </c>
-      <c r="M111" s="5">
-        <v>2.6179999999999999</v>
+      <c r="M111" s="6">
+        <v>2618</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5384,8 +5400,8 @@
       <c r="L112" s="4">
         <v>6</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.661</v>
+      <c r="M112" s="6">
+        <v>1661</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5423,8 +5439,8 @@
       <c r="L113" s="4">
         <v>9</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.6779999999999999</v>
+      <c r="M113" s="6">
+        <v>1678</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5464,8 +5480,8 @@
       <c r="L114" s="4">
         <v>8</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.667</v>
+      <c r="M114" s="6">
+        <v>1667</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5503,8 +5519,8 @@
       <c r="L115" s="4">
         <v>2</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.5720000000000001</v>
+      <c r="M115" s="6">
+        <v>1572</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5544,8 +5560,8 @@
       <c r="L116" s="4">
         <v>8</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.698</v>
+      <c r="M116" s="6">
+        <v>1698</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5583,8 +5599,8 @@
       <c r="L117" s="4">
         <v>8</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.587</v>
+      <c r="M117" s="6">
+        <v>1587</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5624,8 +5640,8 @@
       <c r="L118" s="4">
         <v>9</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.786</v>
+      <c r="M118" s="6">
+        <v>1786</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5663,8 +5679,8 @@
       <c r="L119" s="4">
         <v>13</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.7350000000000001</v>
+      <c r="M119" s="6">
+        <v>1735</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5704,8 +5720,8 @@
       <c r="L120" s="4">
         <v>19</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.7330000000000001</v>
+      <c r="M120" s="6">
+        <v>1733</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5743,8 +5759,8 @@
       <c r="L121" s="4">
         <v>17</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.7829999999999999</v>
+      <c r="M121" s="6">
+        <v>1783</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5784,8 +5800,8 @@
       <c r="L122" s="4">
         <v>12</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.883</v>
+      <c r="M122" s="6">
+        <v>1883</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5823,8 +5839,8 @@
       <c r="L123" s="4">
         <v>21</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.9870000000000001</v>
+      <c r="M123" s="6">
+        <v>1987</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5864,8 +5880,8 @@
       <c r="L124" s="4">
         <v>21</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.0920000000000001</v>
+      <c r="M124" s="6">
+        <v>2092</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5879,8 +5895,8 @@
       <c r="D125" s="4">
         <v>126</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.23</v>
+      <c r="E125" s="8">
+        <v>1230</v>
       </c>
       <c r="F125" s="4">
         <v>205</v>
@@ -5903,8 +5919,8 @@
       <c r="L125" s="4">
         <v>18</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.1779999999999999</v>
+      <c r="M125" s="6">
+        <v>2178</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5944,8 +5960,8 @@
       <c r="L126" s="4">
         <v>20</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.202</v>
+      <c r="M126" s="6">
+        <v>2202</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5959,8 +5975,8 @@
       <c r="D127" s="4">
         <v>240</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.4279999999999999</v>
+      <c r="E127" s="8">
+        <v>1428</v>
       </c>
       <c r="F127" s="4">
         <v>134</v>
@@ -5983,8 +5999,8 @@
       <c r="L127" s="4">
         <v>19</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.282</v>
+      <c r="M127" s="6">
+        <v>2282</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6000,8 +6016,8 @@
       <c r="D128" s="4">
         <v>107</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E128" s="8">
+        <v>1007</v>
       </c>
       <c r="F128" s="4">
         <v>123</v>
@@ -6024,8 +6040,8 @@
       <c r="L128" s="4">
         <v>24</v>
       </c>
-      <c r="M128" s="5">
-        <v>2.0139999999999998</v>
+      <c r="M128" s="6">
+        <v>2014</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6039,8 +6055,8 @@
       <c r="D129" s="4">
         <v>456</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.19</v>
+      <c r="E129" s="8">
+        <v>1190</v>
       </c>
       <c r="F129" s="4">
         <v>52</v>
@@ -6063,8 +6079,8 @@
       <c r="L129" s="4">
         <v>24</v>
       </c>
-      <c r="M129" s="5">
-        <v>2.1040000000000001</v>
+      <c r="M129" s="6">
+        <v>2104</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6104,8 +6120,8 @@
       <c r="L130" s="4">
         <v>9</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.573</v>
+      <c r="M130" s="6">
+        <v>1573</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6143,8 +6159,8 @@
       <c r="L131" s="4">
         <v>16</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.857</v>
+      <c r="M131" s="6">
+        <v>1857</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6160,8 +6176,8 @@
       <c r="D132" s="4">
         <v>525</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.1040000000000001</v>
+      <c r="E132" s="8">
+        <v>1104</v>
       </c>
       <c r="F132" s="4">
         <v>21</v>
@@ -6184,8 +6200,8 @@
       <c r="L132" s="4">
         <v>14</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.9830000000000001</v>
+      <c r="M132" s="6">
+        <v>1983</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6196,11 +6212,11 @@
       <c r="C133" s="4">
         <v>488</v>
       </c>
-      <c r="D133" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.032</v>
+      <c r="D133" s="8">
+        <v>1301</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1032</v>
       </c>
       <c r="F133" s="4">
         <v>11</v>
@@ -6223,35 +6239,35 @@
       <c r="L133" s="4">
         <v>14</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.9279999999999999</v>
+      <c r="M133" s="6">
+        <v>2928</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.08</v>
-      </c>
-      <c r="D134" s="5">
-        <v>3.9409999999999998</v>
-      </c>
-      <c r="E134" s="5">
-        <v>13.842000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>3.9870000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>6.5540000000000003</v>
-      </c>
-      <c r="H134" s="5">
-        <v>10.151</v>
-      </c>
-      <c r="I134" s="5">
-        <v>6.7489999999999997</v>
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1080</v>
+      </c>
+      <c r="D134" s="6">
+        <v>3941</v>
+      </c>
+      <c r="E134" s="6">
+        <v>13842</v>
+      </c>
+      <c r="F134" s="6">
+        <v>3987</v>
+      </c>
+      <c r="G134" s="6">
+        <v>6554</v>
+      </c>
+      <c r="H134" s="6">
+        <v>10151</v>
+      </c>
+      <c r="I134" s="6">
+        <v>6749</v>
       </c>
       <c r="J134" s="5">
         <v>465</v>
@@ -6262,15 +6278,15 @@
       <c r="L134" s="5">
         <v>342</v>
       </c>
-      <c r="M134" s="5">
-        <v>47.155999999999999</v>
+      <c r="M134" s="6">
+        <v>47156</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7269,27 +7285,27 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
         <v>208</v>
       </c>
       <c r="D160" s="5">
         <v>678</v>
       </c>
-      <c r="E160" s="5">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1</v>
+      <c r="E160" s="6">
+        <v>3164</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1074</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1435</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2394</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1000</v>
       </c>
       <c r="J160" s="5">
         <v>64</v>
@@ -7300,15 +7316,15 @@
       <c r="L160" s="5">
         <v>31</v>
       </c>
-      <c r="M160" s="5">
-        <v>10.055999999999999</v>
+      <c r="M160" s="6">
+        <v>10056</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7380,8 +7396,8 @@
       <c r="L162" s="4">
         <v>17</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.0940000000000001</v>
+      <c r="M162" s="6">
+        <v>1094</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7419,8 +7435,8 @@
       <c r="L163" s="4">
         <v>9</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.1359999999999999</v>
+      <c r="M163" s="6">
+        <v>1136</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7979,8 +7995,8 @@
       <c r="L177" s="4">
         <v>7</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.07</v>
+      <c r="M177" s="6">
+        <v>1070</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8020,8 +8036,8 @@
       <c r="L178" s="4">
         <v>9</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.163</v>
+      <c r="M178" s="6">
+        <v>1163</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8059,8 +8075,8 @@
       <c r="L179" s="4">
         <v>13</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.1160000000000001</v>
+      <c r="M179" s="6">
+        <v>1116</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8100,8 +8116,8 @@
       <c r="L180" s="4">
         <v>12</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.181</v>
+      <c r="M180" s="6">
+        <v>1181</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8139,8 +8155,8 @@
       <c r="L181" s="4">
         <v>11</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.3480000000000001</v>
+      <c r="M181" s="6">
+        <v>1348</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8219,8 +8235,8 @@
       <c r="L183" s="4">
         <v>6</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.101</v>
+      <c r="M183" s="6">
+        <v>1101</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8260,8 +8276,8 @@
       <c r="L184" s="4">
         <v>12</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.206</v>
+      <c r="M184" s="6">
+        <v>1206</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8299,35 +8315,35 @@
       <c r="L185" s="4">
         <v>16</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.7410000000000001</v>
+      <c r="M185" s="6">
+        <v>1741</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
         <v>933</v>
       </c>
-      <c r="D186" s="5">
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="E186" s="5">
-        <v>7.3959999999999999</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>4.774</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.3010000000000002</v>
+      <c r="D186" s="6">
+        <v>2426</v>
+      </c>
+      <c r="E186" s="6">
+        <v>7396</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1808</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2586</v>
+      </c>
+      <c r="H186" s="6">
+        <v>4774</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2301</v>
       </c>
       <c r="J186" s="5">
         <v>168</v>
@@ -8338,15 +8354,15 @@
       <c r="L186" s="5">
         <v>184</v>
       </c>
-      <c r="M186" s="5">
-        <v>22.599</v>
+      <c r="M186" s="6">
+        <v>22599</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9345,15 +9361,15 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
         <v>92</v>
       </c>
       <c r="D212" s="5">
         <v>469</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.3879999999999999</v>
+      <c r="E212" s="6">
+        <v>1388</v>
       </c>
       <c r="F212" s="5">
         <v>653</v>
@@ -9376,15 +9392,15 @@
       <c r="L212" s="5">
         <v>45</v>
       </c>
-      <c r="M212" s="5">
-        <v>4.7910000000000004</v>
+      <c r="M212" s="6">
+        <v>4791</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9438,14 +9454,14 @@
       <c r="F214" s="4">
         <v>1</v>
       </c>
-      <c r="G214" s="4">
-        <v>2.11</v>
-      </c>
-      <c r="H214" s="4">
-        <v>6.7489999999999997</v>
-      </c>
-      <c r="I214" s="4">
-        <v>1.38</v>
+      <c r="G214" s="8">
+        <v>2110</v>
+      </c>
+      <c r="H214" s="8">
+        <v>6749</v>
+      </c>
+      <c r="I214" s="8">
+        <v>1380</v>
       </c>
       <c r="J214" s="4">
         <v>21</v>
@@ -9456,8 +9472,8 @@
       <c r="L214" s="4">
         <v>49</v>
       </c>
-      <c r="M214" s="5">
-        <v>10.329000000000001</v>
+      <c r="M214" s="6">
+        <v>10329</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9477,14 +9493,14 @@
       <c r="F215" s="4">
         <v>1</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.881</v>
-      </c>
-      <c r="H215" s="4">
-        <v>6.694</v>
-      </c>
-      <c r="I215" s="4">
-        <v>2.0539999999999998</v>
+      <c r="G215" s="8">
+        <v>1881</v>
+      </c>
+      <c r="H215" s="8">
+        <v>6694</v>
+      </c>
+      <c r="I215" s="8">
+        <v>2054</v>
       </c>
       <c r="J215" s="4">
         <v>20</v>
@@ -9495,8 +9511,8 @@
       <c r="L215" s="4">
         <v>9</v>
       </c>
-      <c r="M215" s="5">
-        <v>10.715</v>
+      <c r="M215" s="6">
+        <v>10715</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9518,14 +9534,14 @@
       <c r="F216" s="4">
         <v>30</v>
       </c>
-      <c r="G216" s="4">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="H216" s="4">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="I216" s="4">
-        <v>2.806</v>
+      <c r="G216" s="8">
+        <v>1441</v>
+      </c>
+      <c r="H216" s="8">
+        <v>2151</v>
+      </c>
+      <c r="I216" s="8">
+        <v>2806</v>
       </c>
       <c r="J216" s="4">
         <v>284</v>
@@ -9536,8 +9552,8 @@
       <c r="L216" s="4">
         <v>20</v>
       </c>
-      <c r="M216" s="5">
-        <v>6.7670000000000003</v>
+      <c r="M216" s="6">
+        <v>6767</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9557,14 +9573,14 @@
       <c r="F217" s="4">
         <v>79</v>
       </c>
-      <c r="G217" s="4">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="H217" s="4">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="I217" s="4">
-        <v>3.63</v>
+      <c r="G217" s="8">
+        <v>1451</v>
+      </c>
+      <c r="H217" s="8">
+        <v>1689</v>
+      </c>
+      <c r="I217" s="8">
+        <v>3630</v>
       </c>
       <c r="J217" s="4">
         <v>382</v>
@@ -9575,8 +9591,8 @@
       <c r="L217" s="4">
         <v>17</v>
       </c>
-      <c r="M217" s="5">
-        <v>7.4240000000000004</v>
+      <c r="M217" s="6">
+        <v>7424</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9601,11 +9617,11 @@
       <c r="G218" s="4">
         <v>685</v>
       </c>
-      <c r="H218" s="4">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="I218" s="4">
-        <v>2.5910000000000002</v>
+      <c r="H218" s="8">
+        <v>2025</v>
+      </c>
+      <c r="I218" s="8">
+        <v>2591</v>
       </c>
       <c r="J218" s="4">
         <v>432</v>
@@ -9616,8 +9632,8 @@
       <c r="L218" s="4">
         <v>18</v>
       </c>
-      <c r="M218" s="5">
-        <v>6.7240000000000002</v>
+      <c r="M218" s="6">
+        <v>6724</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9634,17 +9650,17 @@
       <c r="E219" s="4">
         <v>101</v>
       </c>
-      <c r="F219" s="4">
-        <v>1.2470000000000001</v>
+      <c r="F219" s="8">
+        <v>1247</v>
       </c>
       <c r="G219" s="4">
         <v>700</v>
       </c>
-      <c r="H219" s="4">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="I219" s="4">
-        <v>2.8679999999999999</v>
+      <c r="H219" s="8">
+        <v>1622</v>
+      </c>
+      <c r="I219" s="8">
+        <v>2868</v>
       </c>
       <c r="J219" s="4">
         <v>474</v>
@@ -9655,8 +9671,8 @@
       <c r="L219" s="4">
         <v>25</v>
       </c>
-      <c r="M219" s="5">
-        <v>7.1909999999999998</v>
+      <c r="M219" s="6">
+        <v>7191</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9675,17 +9691,17 @@
       <c r="E220" s="4">
         <v>235</v>
       </c>
-      <c r="F220" s="4">
-        <v>1.0580000000000001</v>
+      <c r="F220" s="8">
+        <v>1058</v>
       </c>
       <c r="G220" s="4">
         <v>625</v>
       </c>
-      <c r="H220" s="4">
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="I220" s="4">
-        <v>2.4369999999999998</v>
+      <c r="H220" s="8">
+        <v>2152</v>
+      </c>
+      <c r="I220" s="8">
+        <v>2437</v>
       </c>
       <c r="J220" s="4">
         <v>470</v>
@@ -9696,8 +9712,8 @@
       <c r="L220" s="4">
         <v>17</v>
       </c>
-      <c r="M220" s="5">
-        <v>7.1360000000000001</v>
+      <c r="M220" s="6">
+        <v>7136</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9711,20 +9727,20 @@
       <c r="D221" s="4">
         <v>41</v>
       </c>
-      <c r="E221" s="4">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.2709999999999999</v>
+      <c r="E221" s="8">
+        <v>1009</v>
+      </c>
+      <c r="F221" s="8">
+        <v>1271</v>
       </c>
       <c r="G221" s="4">
         <v>716</v>
       </c>
-      <c r="H221" s="4">
-        <v>1.9870000000000001</v>
-      </c>
-      <c r="I221" s="4">
-        <v>2.0219999999999998</v>
+      <c r="H221" s="8">
+        <v>1987</v>
+      </c>
+      <c r="I221" s="8">
+        <v>2022</v>
       </c>
       <c r="J221" s="4">
         <v>312</v>
@@ -9735,8 +9751,8 @@
       <c r="L221" s="4">
         <v>18</v>
       </c>
-      <c r="M221" s="5">
-        <v>7.516</v>
+      <c r="M221" s="6">
+        <v>7516</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9761,11 +9777,11 @@
       <c r="G222" s="4">
         <v>973</v>
       </c>
-      <c r="H222" s="4">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="I222" s="4">
-        <v>2.0129999999999999</v>
+      <c r="H222" s="8">
+        <v>2372</v>
+      </c>
+      <c r="I222" s="8">
+        <v>2013</v>
       </c>
       <c r="J222" s="4">
         <v>456</v>
@@ -9776,8 +9792,8 @@
       <c r="L222" s="4">
         <v>30</v>
       </c>
-      <c r="M222" s="5">
-        <v>7.3780000000000001</v>
+      <c r="M222" s="6">
+        <v>7378</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9791,20 +9807,20 @@
       <c r="D223" s="4">
         <v>41</v>
       </c>
-      <c r="E223" s="4">
-        <v>1.5089999999999999</v>
+      <c r="E223" s="8">
+        <v>1509</v>
       </c>
       <c r="F223" s="4">
         <v>972</v>
       </c>
-      <c r="G223" s="4">
-        <v>1.113</v>
-      </c>
-      <c r="H223" s="4">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.6160000000000001</v>
+      <c r="G223" s="8">
+        <v>1113</v>
+      </c>
+      <c r="H223" s="8">
+        <v>1888</v>
+      </c>
+      <c r="I223" s="8">
+        <v>1616</v>
       </c>
       <c r="J223" s="4">
         <v>255</v>
@@ -9815,8 +9831,8 @@
       <c r="L223" s="4">
         <v>13</v>
       </c>
-      <c r="M223" s="5">
-        <v>7.5359999999999996</v>
+      <c r="M223" s="6">
+        <v>7536</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9835,17 +9851,17 @@
       <c r="E224" s="4">
         <v>628</v>
       </c>
-      <c r="F224" s="4">
-        <v>1.0509999999999999</v>
+      <c r="F224" s="8">
+        <v>1051</v>
       </c>
       <c r="G224" s="4">
         <v>898</v>
       </c>
-      <c r="H224" s="4">
-        <v>1.887</v>
-      </c>
-      <c r="I224" s="4">
-        <v>1.681</v>
+      <c r="H224" s="8">
+        <v>1887</v>
+      </c>
+      <c r="I224" s="8">
+        <v>1681</v>
       </c>
       <c r="J224" s="4">
         <v>307</v>
@@ -9856,8 +9872,8 @@
       <c r="L224" s="4">
         <v>25</v>
       </c>
-      <c r="M224" s="5">
-        <v>6.609</v>
+      <c r="M224" s="6">
+        <v>6609</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9871,20 +9887,20 @@
       <c r="D225" s="4">
         <v>45</v>
       </c>
-      <c r="E225" s="4">
-        <v>1.772</v>
-      </c>
-      <c r="F225" s="4">
-        <v>1.1519999999999999</v>
+      <c r="E225" s="8">
+        <v>1772</v>
+      </c>
+      <c r="F225" s="8">
+        <v>1152</v>
       </c>
       <c r="G225" s="4">
         <v>997</v>
       </c>
-      <c r="H225" s="4">
-        <v>1.444</v>
-      </c>
-      <c r="I225" s="4">
-        <v>1.0669999999999999</v>
+      <c r="H225" s="8">
+        <v>1444</v>
+      </c>
+      <c r="I225" s="8">
+        <v>1067</v>
       </c>
       <c r="J225" s="4">
         <v>163</v>
@@ -9895,8 +9911,8 @@
       <c r="L225" s="4">
         <v>21</v>
       </c>
-      <c r="M225" s="5">
-        <v>6.7430000000000003</v>
+      <c r="M225" s="6">
+        <v>6743</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9915,17 +9931,17 @@
       <c r="E226" s="4">
         <v>741</v>
       </c>
-      <c r="F226" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1.024</v>
-      </c>
-      <c r="H226" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="I226" s="4">
-        <v>1.341</v>
+      <c r="F226" s="8">
+        <v>1072</v>
+      </c>
+      <c r="G226" s="8">
+        <v>1024</v>
+      </c>
+      <c r="H226" s="8">
+        <v>1369</v>
+      </c>
+      <c r="I226" s="8">
+        <v>1341</v>
       </c>
       <c r="J226" s="4">
         <v>149</v>
@@ -9936,8 +9952,8 @@
       <c r="L226" s="4">
         <v>18</v>
       </c>
-      <c r="M226" s="5">
-        <v>5.8419999999999996</v>
+      <c r="M226" s="6">
+        <v>5842</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9951,17 +9967,17 @@
       <c r="D227" s="4">
         <v>102</v>
       </c>
-      <c r="E227" s="4">
-        <v>2.097</v>
-      </c>
-      <c r="F227" s="4">
-        <v>1.054</v>
+      <c r="E227" s="8">
+        <v>2097</v>
+      </c>
+      <c r="F227" s="8">
+        <v>1054</v>
       </c>
       <c r="G227" s="4">
         <v>911</v>
       </c>
-      <c r="H227" s="4">
-        <v>1.107</v>
+      <c r="H227" s="8">
+        <v>1107</v>
       </c>
       <c r="I227" s="4">
         <v>591</v>
@@ -9975,8 +9991,8 @@
       <c r="L227" s="4">
         <v>20</v>
       </c>
-      <c r="M227" s="5">
-        <v>6.0250000000000004</v>
+      <c r="M227" s="6">
+        <v>6025</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9992,20 +10008,20 @@
       <c r="D228" s="4">
         <v>23</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1.006</v>
+      <c r="E228" s="8">
+        <v>1092</v>
+      </c>
+      <c r="F228" s="8">
+        <v>1006</v>
       </c>
       <c r="G228" s="4">
         <v>927</v>
       </c>
-      <c r="H228" s="4">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="I228" s="4">
-        <v>1.0109999999999999</v>
+      <c r="H228" s="8">
+        <v>1322</v>
+      </c>
+      <c r="I228" s="8">
+        <v>1011</v>
       </c>
       <c r="J228" s="4">
         <v>113</v>
@@ -10016,8 +10032,8 @@
       <c r="L228" s="4">
         <v>28</v>
       </c>
-      <c r="M228" s="5">
-        <v>5.6029999999999998</v>
+      <c r="M228" s="6">
+        <v>5603</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10031,8 +10047,8 @@
       <c r="D229" s="4">
         <v>229</v>
       </c>
-      <c r="E229" s="4">
-        <v>2.7610000000000001</v>
+      <c r="E229" s="8">
+        <v>2761</v>
       </c>
       <c r="F229" s="4">
         <v>820</v>
@@ -10055,8 +10071,8 @@
       <c r="L229" s="4">
         <v>32</v>
       </c>
-      <c r="M229" s="5">
-        <v>5.7430000000000003</v>
+      <c r="M229" s="6">
+        <v>5743</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10072,8 +10088,8 @@
       <c r="D230" s="4">
         <v>61</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.587</v>
+      <c r="E230" s="8">
+        <v>1587</v>
       </c>
       <c r="F230" s="4">
         <v>614</v>
@@ -10081,8 +10097,8 @@
       <c r="G230" s="4">
         <v>601</v>
       </c>
-      <c r="H230" s="4">
-        <v>1.125</v>
+      <c r="H230" s="8">
+        <v>1125</v>
       </c>
       <c r="I230" s="4">
         <v>755</v>
@@ -10096,8 +10112,8 @@
       <c r="L230" s="4">
         <v>19</v>
       </c>
-      <c r="M230" s="5">
-        <v>4.851</v>
+      <c r="M230" s="6">
+        <v>4851</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10111,8 +10127,8 @@
       <c r="D231" s="4">
         <v>440</v>
       </c>
-      <c r="E231" s="4">
-        <v>2.867</v>
+      <c r="E231" s="8">
+        <v>2867</v>
       </c>
       <c r="F231" s="4">
         <v>350</v>
@@ -10135,8 +10151,8 @@
       <c r="L231" s="4">
         <v>24</v>
       </c>
-      <c r="M231" s="5">
-        <v>5.0720000000000001</v>
+      <c r="M231" s="6">
+        <v>5072</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10152,8 +10168,8 @@
       <c r="D232" s="4">
         <v>159</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.7250000000000001</v>
+      <c r="E232" s="8">
+        <v>1725</v>
       </c>
       <c r="F232" s="4">
         <v>267</v>
@@ -10176,8 +10192,8 @@
       <c r="L232" s="4">
         <v>19</v>
       </c>
-      <c r="M232" s="5">
-        <v>3.875</v>
+      <c r="M232" s="6">
+        <v>3875</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10191,8 +10207,8 @@
       <c r="D233" s="4">
         <v>750</v>
       </c>
-      <c r="E233" s="4">
-        <v>2.2149999999999999</v>
+      <c r="E233" s="8">
+        <v>2215</v>
       </c>
       <c r="F233" s="4">
         <v>105</v>
@@ -10215,8 +10231,8 @@
       <c r="L233" s="4">
         <v>26</v>
       </c>
-      <c r="M233" s="5">
-        <v>4.0940000000000003</v>
+      <c r="M233" s="6">
+        <v>4094</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10232,8 +10248,8 @@
       <c r="D234" s="4">
         <v>280</v>
       </c>
-      <c r="E234" s="4">
-        <v>1.2969999999999999</v>
+      <c r="E234" s="8">
+        <v>1297</v>
       </c>
       <c r="F234" s="4">
         <v>103</v>
@@ -10256,8 +10272,8 @@
       <c r="L234" s="4">
         <v>12</v>
       </c>
-      <c r="M234" s="5">
-        <v>2.629</v>
+      <c r="M234" s="6">
+        <v>2629</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10271,8 +10287,8 @@
       <c r="D235" s="4">
         <v>835</v>
       </c>
-      <c r="E235" s="4">
-        <v>1.42</v>
+      <c r="E235" s="8">
+        <v>1420</v>
       </c>
       <c r="F235" s="4">
         <v>23</v>
@@ -10295,8 +10311,8 @@
       <c r="L235" s="4">
         <v>38</v>
       </c>
-      <c r="M235" s="5">
-        <v>3.0459999999999998</v>
+      <c r="M235" s="6">
+        <v>3046</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10312,8 +10328,8 @@
       <c r="D236" s="4">
         <v>697</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.4319999999999999</v>
+      <c r="E236" s="8">
+        <v>1432</v>
       </c>
       <c r="F236" s="4">
         <v>44</v>
@@ -10336,8 +10352,8 @@
       <c r="L236" s="4">
         <v>26</v>
       </c>
-      <c r="M236" s="5">
-        <v>2.9369999999999998</v>
+      <c r="M236" s="6">
+        <v>2937</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10348,11 +10364,11 @@
       <c r="C237" s="4">
         <v>981</v>
       </c>
-      <c r="D237" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="E237" s="4">
-        <v>1.365</v>
+      <c r="D237" s="8">
+        <v>1460</v>
+      </c>
+      <c r="E237" s="8">
+        <v>1365</v>
       </c>
       <c r="F237" s="4">
         <v>5</v>
@@ -10375,54 +10391,54 @@
       <c r="L237" s="4">
         <v>38</v>
       </c>
-      <c r="M237" s="5">
-        <v>4.1130000000000004</v>
+      <c r="M237" s="6">
+        <v>4113</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.282</v>
-      </c>
-      <c r="D238" s="5">
-        <v>5.4160000000000004</v>
-      </c>
-      <c r="E238" s="5">
-        <v>26.562000000000001</v>
-      </c>
-      <c r="F238" s="5">
-        <v>14.074</v>
-      </c>
-      <c r="G238" s="5">
-        <v>19.338000000000001</v>
-      </c>
-      <c r="H238" s="5">
-        <v>40.631</v>
-      </c>
-      <c r="I238" s="5">
-        <v>31.855</v>
-      </c>
-      <c r="J238" s="5">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="K238" s="5">
-        <v>1.0860000000000001</v>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>2282</v>
+      </c>
+      <c r="D238" s="6">
+        <v>5416</v>
+      </c>
+      <c r="E238" s="6">
+        <v>26562</v>
+      </c>
+      <c r="F238" s="6">
+        <v>14074</v>
+      </c>
+      <c r="G238" s="6">
+        <v>19338</v>
+      </c>
+      <c r="H238" s="6">
+        <v>40631</v>
+      </c>
+      <c r="I238" s="6">
+        <v>31855</v>
+      </c>
+      <c r="J238" s="6">
+        <v>4092</v>
+      </c>
+      <c r="K238" s="6">
+        <v>1086</v>
       </c>
       <c r="L238" s="5">
         <v>562</v>
       </c>
-      <c r="M238" s="5">
-        <v>145.898</v>
+      <c r="M238" s="6">
+        <v>145898</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10479,8 +10495,8 @@
       <c r="G240" s="4">
         <v>750</v>
       </c>
-      <c r="H240" s="4">
-        <v>2.4900000000000002</v>
+      <c r="H240" s="8">
+        <v>2490</v>
       </c>
       <c r="I240" s="4">
         <v>535</v>
@@ -10494,8 +10510,8 @@
       <c r="L240" s="4">
         <v>30</v>
       </c>
-      <c r="M240" s="5">
-        <v>3.8279999999999998</v>
+      <c r="M240" s="6">
+        <v>3828</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10518,8 +10534,8 @@
       <c r="G241" s="4">
         <v>646</v>
       </c>
-      <c r="H241" s="4">
-        <v>2.4390000000000001</v>
+      <c r="H241" s="8">
+        <v>2439</v>
       </c>
       <c r="I241" s="4">
         <v>759</v>
@@ -10533,8 +10549,8 @@
       <c r="L241" s="4">
         <v>8</v>
       </c>
-      <c r="M241" s="5">
-        <v>3.88</v>
+      <c r="M241" s="6">
+        <v>3880</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10574,8 +10590,8 @@
       <c r="L242" s="4">
         <v>9</v>
       </c>
-      <c r="M242" s="5">
-        <v>2.2410000000000001</v>
+      <c r="M242" s="6">
+        <v>2241</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10601,8 +10617,8 @@
       <c r="H243" s="4">
         <v>560</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.081</v>
+      <c r="I243" s="8">
+        <v>1081</v>
       </c>
       <c r="J243" s="4">
         <v>73</v>
@@ -10613,8 +10629,8 @@
       <c r="L243" s="4">
         <v>13</v>
       </c>
-      <c r="M243" s="5">
-        <v>2.3919999999999999</v>
+      <c r="M243" s="6">
+        <v>2392</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10654,8 +10670,8 @@
       <c r="L244" s="4">
         <v>7</v>
       </c>
-      <c r="M244" s="5">
-        <v>2.012</v>
+      <c r="M244" s="6">
+        <v>2012</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10693,8 +10709,8 @@
       <c r="L245" s="4">
         <v>11</v>
       </c>
-      <c r="M245" s="5">
-        <v>2.2330000000000001</v>
+      <c r="M245" s="6">
+        <v>2233</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10734,8 +10750,8 @@
       <c r="L246" s="4">
         <v>10</v>
       </c>
-      <c r="M246" s="5">
-        <v>2.3809999999999998</v>
+      <c r="M246" s="6">
+        <v>2381</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10773,8 +10789,8 @@
       <c r="L247" s="4">
         <v>8</v>
       </c>
-      <c r="M247" s="5">
-        <v>2.5659999999999998</v>
+      <c r="M247" s="6">
+        <v>2566</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10799,8 +10815,8 @@
       <c r="G248" s="4">
         <v>434</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.03</v>
+      <c r="H248" s="8">
+        <v>1030</v>
       </c>
       <c r="I248" s="4">
         <v>568</v>
@@ -10814,8 +10830,8 @@
       <c r="L248" s="4">
         <v>16</v>
       </c>
-      <c r="M248" s="5">
-        <v>2.7490000000000001</v>
+      <c r="M248" s="6">
+        <v>2749</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10853,8 +10869,8 @@
       <c r="L249" s="4">
         <v>10</v>
       </c>
-      <c r="M249" s="5">
-        <v>2.798</v>
+      <c r="M249" s="6">
+        <v>2798</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10894,8 +10910,8 @@
       <c r="L250" s="4">
         <v>8</v>
       </c>
-      <c r="M250" s="5">
-        <v>2.5430000000000001</v>
+      <c r="M250" s="6">
+        <v>2543</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10909,8 +10925,8 @@
       <c r="D251" s="4">
         <v>72</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.052</v>
+      <c r="E251" s="8">
+        <v>1052</v>
       </c>
       <c r="F251" s="4">
         <v>378</v>
@@ -10933,8 +10949,8 @@
       <c r="L251" s="4">
         <v>16</v>
       </c>
-      <c r="M251" s="5">
-        <v>2.6760000000000002</v>
+      <c r="M251" s="6">
+        <v>2676</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10974,8 +10990,8 @@
       <c r="L252" s="4">
         <v>13</v>
       </c>
-      <c r="M252" s="5">
-        <v>2.484</v>
+      <c r="M252" s="6">
+        <v>2484</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10989,8 +11005,8 @@
       <c r="D253" s="4">
         <v>136</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.252</v>
+      <c r="E253" s="8">
+        <v>1252</v>
       </c>
       <c r="F253" s="4">
         <v>364</v>
@@ -11013,8 +11029,8 @@
       <c r="L253" s="4">
         <v>26</v>
       </c>
-      <c r="M253" s="5">
-        <v>2.6779999999999999</v>
+      <c r="M253" s="6">
+        <v>2678</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11054,8 +11070,8 @@
       <c r="L254" s="4">
         <v>22</v>
       </c>
-      <c r="M254" s="5">
-        <v>2.5990000000000002</v>
+      <c r="M254" s="6">
+        <v>2599</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11069,8 +11085,8 @@
       <c r="D255" s="4">
         <v>243</v>
       </c>
-      <c r="E255" s="4">
-        <v>1.468</v>
+      <c r="E255" s="8">
+        <v>1468</v>
       </c>
       <c r="F255" s="4">
         <v>239</v>
@@ -11093,8 +11109,8 @@
       <c r="L255" s="4">
         <v>14</v>
       </c>
-      <c r="M255" s="5">
-        <v>2.6240000000000001</v>
+      <c r="M255" s="6">
+        <v>2624</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11134,8 +11150,8 @@
       <c r="L256" s="4">
         <v>18</v>
       </c>
-      <c r="M256" s="5">
-        <v>2.3809999999999998</v>
+      <c r="M256" s="6">
+        <v>2381</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11149,8 +11165,8 @@
       <c r="D257" s="4">
         <v>433</v>
       </c>
-      <c r="E257" s="4">
-        <v>1.6160000000000001</v>
+      <c r="E257" s="8">
+        <v>1616</v>
       </c>
       <c r="F257" s="4">
         <v>130</v>
@@ -11173,8 +11189,8 @@
       <c r="L257" s="4">
         <v>22</v>
       </c>
-      <c r="M257" s="5">
-        <v>2.7440000000000002</v>
+      <c r="M257" s="6">
+        <v>2744</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11190,8 +11206,8 @@
       <c r="D258" s="4">
         <v>156</v>
       </c>
-      <c r="E258" s="4">
-        <v>1.123</v>
+      <c r="E258" s="8">
+        <v>1123</v>
       </c>
       <c r="F258" s="4">
         <v>157</v>
@@ -11214,8 +11230,8 @@
       <c r="L258" s="4">
         <v>13</v>
       </c>
-      <c r="M258" s="5">
-        <v>2.3540000000000001</v>
+      <c r="M258" s="6">
+        <v>2354</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11229,8 +11245,8 @@
       <c r="D259" s="4">
         <v>691</v>
       </c>
-      <c r="E259" s="4">
-        <v>1.34</v>
+      <c r="E259" s="8">
+        <v>1340</v>
       </c>
       <c r="F259" s="4">
         <v>37</v>
@@ -11253,8 +11269,8 @@
       <c r="L259" s="4">
         <v>24</v>
       </c>
-      <c r="M259" s="5">
-        <v>2.5230000000000001</v>
+      <c r="M259" s="6">
+        <v>2523</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11294,8 +11310,8 @@
       <c r="L260" s="4">
         <v>17</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.6739999999999999</v>
+      <c r="M260" s="6">
+        <v>1674</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11333,8 +11349,8 @@
       <c r="L261" s="4">
         <v>19</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.976</v>
+      <c r="M261" s="6">
+        <v>1976</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11374,8 +11390,8 @@
       <c r="L262" s="4">
         <v>28</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.8779999999999999</v>
+      <c r="M262" s="6">
+        <v>1878</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11386,8 +11402,8 @@
       <c r="C263" s="4">
         <v>525</v>
       </c>
-      <c r="D263" s="4">
-        <v>1.1910000000000001</v>
+      <c r="D263" s="8">
+        <v>1191</v>
       </c>
       <c r="E263" s="4">
         <v>760</v>
@@ -11413,35 +11429,35 @@
       <c r="L263" s="4">
         <v>31</v>
       </c>
-      <c r="M263" s="5">
-        <v>2.5880000000000001</v>
+      <c r="M263" s="6">
+        <v>2588</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="D264" s="5">
-        <v>4.6509999999999998</v>
-      </c>
-      <c r="E264" s="5">
-        <v>15.561</v>
-      </c>
-      <c r="F264" s="5">
-        <v>5.3849999999999998</v>
-      </c>
-      <c r="G264" s="5">
-        <v>8.0739999999999998</v>
-      </c>
-      <c r="H264" s="5">
-        <v>15.542</v>
-      </c>
-      <c r="I264" s="5">
-        <v>9.1050000000000004</v>
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
+        <v>1265</v>
+      </c>
+      <c r="D264" s="6">
+        <v>4651</v>
+      </c>
+      <c r="E264" s="6">
+        <v>15561</v>
+      </c>
+      <c r="F264" s="6">
+        <v>5385</v>
+      </c>
+      <c r="G264" s="6">
+        <v>8074</v>
+      </c>
+      <c r="H264" s="6">
+        <v>15542</v>
+      </c>
+      <c r="I264" s="6">
+        <v>9105</v>
       </c>
       <c r="J264" s="5">
         <v>760</v>
@@ -11452,15 +11468,15 @@
       <c r="L264" s="5">
         <v>393</v>
       </c>
-      <c r="M264" s="5">
-        <v>60.802</v>
+      <c r="M264" s="6">
+        <v>60802</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12459,24 +12475,24 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="5">
         <v>192</v>
       </c>
       <c r="D290" s="5">
         <v>605</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.6719999999999999</v>
+      <c r="E290" s="6">
+        <v>1672</v>
       </c>
       <c r="F290" s="5">
         <v>699</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H290" s="5">
-        <v>1.145</v>
+      <c r="G290" s="6">
+        <v>1146</v>
+      </c>
+      <c r="H290" s="6">
+        <v>1145</v>
       </c>
       <c r="I290" s="5">
         <v>529</v>
@@ -12490,15 +12506,15 @@
       <c r="L290" s="5">
         <v>124</v>
       </c>
-      <c r="M290" s="5">
-        <v>6.15</v>
+      <c r="M290" s="6">
+        <v>6150</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12555,8 +12571,8 @@
       <c r="G292" s="4">
         <v>515</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.58</v>
+      <c r="H292" s="8">
+        <v>1580</v>
       </c>
       <c r="I292" s="4">
         <v>291</v>
@@ -12570,8 +12586,8 @@
       <c r="L292" s="4">
         <v>18</v>
       </c>
-      <c r="M292" s="5">
-        <v>2.4119999999999999</v>
+      <c r="M292" s="6">
+        <v>2412</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12594,8 +12610,8 @@
       <c r="G293" s="4">
         <v>419</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.54</v>
+      <c r="H293" s="8">
+        <v>1540</v>
       </c>
       <c r="I293" s="4">
         <v>476</v>
@@ -12609,8 +12625,8 @@
       <c r="L293" s="4">
         <v>2</v>
       </c>
-      <c r="M293" s="5">
-        <v>2.452</v>
+      <c r="M293" s="6">
+        <v>2452</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12650,8 +12666,8 @@
       <c r="L294" s="4">
         <v>3</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.3580000000000001</v>
+      <c r="M294" s="6">
+        <v>1358</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12689,8 +12705,8 @@
       <c r="L295" s="4">
         <v>2</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.3620000000000001</v>
+      <c r="M295" s="6">
+        <v>1362</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12730,8 +12746,8 @@
       <c r="L296" s="4">
         <v>5</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.294</v>
+      <c r="M296" s="6">
+        <v>1294</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12769,8 +12785,8 @@
       <c r="L297" s="4">
         <v>8</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.32</v>
+      <c r="M297" s="6">
+        <v>1320</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12810,8 +12826,8 @@
       <c r="L298" s="4">
         <v>3</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.407</v>
+      <c r="M298" s="6">
+        <v>1407</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12849,8 +12865,8 @@
       <c r="L299" s="4">
         <v>2</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.44</v>
+      <c r="M299" s="6">
+        <v>1440</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12890,8 +12906,8 @@
       <c r="L300" s="4">
         <v>4</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.619</v>
+      <c r="M300" s="6">
+        <v>1619</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12929,8 +12945,8 @@
       <c r="L301" s="4">
         <v>1</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.6910000000000001</v>
+      <c r="M301" s="6">
+        <v>1691</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12970,8 +12986,8 @@
       <c r="L302" s="4">
         <v>5</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.655</v>
+      <c r="M302" s="6">
+        <v>1655</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13009,8 +13025,8 @@
       <c r="L303" s="4">
         <v>4</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.833</v>
+      <c r="M303" s="6">
+        <v>1833</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13050,8 +13066,8 @@
       <c r="L304" s="4">
         <v>1</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M304" s="6">
+        <v>1789</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13089,8 +13105,8 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.8260000000000001</v>
+      <c r="M305" s="6">
+        <v>1826</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13130,8 +13146,8 @@
       <c r="L306" s="4">
         <v>2</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.827</v>
+      <c r="M306" s="6">
+        <v>1827</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13145,8 +13161,8 @@
       <c r="D307" s="4">
         <v>167</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.1120000000000001</v>
+      <c r="E307" s="8">
+        <v>1112</v>
       </c>
       <c r="F307" s="4">
         <v>141</v>
@@ -13169,8 +13185,8 @@
       <c r="L307" s="4">
         <v>5</v>
       </c>
-      <c r="M307" s="5">
-        <v>2.016</v>
+      <c r="M307" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13210,8 +13226,8 @@
       <c r="L308" s="4">
         <v>6</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.992</v>
+      <c r="M308" s="6">
+        <v>1992</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13225,8 +13241,8 @@
       <c r="D309" s="4">
         <v>268</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.145</v>
+      <c r="E309" s="8">
+        <v>1145</v>
       </c>
       <c r="F309" s="4">
         <v>61</v>
@@ -13249,8 +13265,8 @@
       <c r="L309" s="4">
         <v>3</v>
       </c>
-      <c r="M309" s="5">
-        <v>1.9179999999999999</v>
+      <c r="M309" s="6">
+        <v>1918</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13290,8 +13306,8 @@
       <c r="L310" s="4">
         <v>6</v>
       </c>
-      <c r="M310" s="5">
-        <v>1.75</v>
+      <c r="M310" s="6">
+        <v>1750</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13305,8 +13321,8 @@
       <c r="D311" s="4">
         <v>481</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.0509999999999999</v>
+      <c r="E311" s="8">
+        <v>1051</v>
       </c>
       <c r="F311" s="4">
         <v>26</v>
@@ -13329,8 +13345,8 @@
       <c r="L311" s="4">
         <v>7</v>
       </c>
-      <c r="M311" s="5">
-        <v>1.9910000000000001</v>
+      <c r="M311" s="6">
+        <v>1991</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13370,8 +13386,8 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
-        <v>1.569</v>
+      <c r="M312" s="6">
+        <v>1569</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13409,8 +13425,8 @@
       <c r="L313" s="4">
         <v>1</v>
       </c>
-      <c r="M313" s="5">
-        <v>1.786</v>
+      <c r="M313" s="6">
+        <v>1786</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13450,8 +13466,8 @@
       <c r="L314" s="4">
         <v>5</v>
       </c>
-      <c r="M314" s="5">
-        <v>1.752</v>
+      <c r="M314" s="6">
+        <v>1752</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13462,8 +13478,8 @@
       <c r="C315" s="4">
         <v>425</v>
       </c>
-      <c r="D315" s="4">
-        <v>1.097</v>
+      <c r="D315" s="8">
+        <v>1097</v>
       </c>
       <c r="E315" s="4">
         <v>734</v>
@@ -13489,35 +13505,35 @@
       <c r="L315" s="4">
         <v>19</v>
       </c>
-      <c r="M315" s="5">
-        <v>2.3620000000000001</v>
+      <c r="M315" s="6">
+        <v>2362</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>1.452</v>
-      </c>
-      <c r="D316" s="5">
-        <v>3.9929999999999999</v>
-      </c>
-      <c r="E316" s="5">
-        <v>12.359</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>5.4960000000000004</v>
-      </c>
-      <c r="H316" s="5">
-        <v>9.9849999999999994</v>
-      </c>
-      <c r="I316" s="5">
-        <v>5.4909999999999997</v>
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
+        <v>1452</v>
+      </c>
+      <c r="D316" s="6">
+        <v>3993</v>
+      </c>
+      <c r="E316" s="6">
+        <v>12359</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2967</v>
+      </c>
+      <c r="G316" s="6">
+        <v>5496</v>
+      </c>
+      <c r="H316" s="6">
+        <v>9985</v>
+      </c>
+      <c r="I316" s="6">
+        <v>5491</v>
       </c>
       <c r="J316" s="5">
         <v>512</v>
@@ -13528,8 +13544,18 @@
       <c r="L316" s="5">
         <v>115</v>
       </c>
-      <c r="M316" s="5">
-        <v>42.420999999999999</v>
+      <c r="M316" s="6">
+        <v>42421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
